--- a/Doc/画面イメージ.xlsx
+++ b/Doc/画面イメージ.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F069C5-3D80-4F24-BF97-B00E76B31DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD87877-1F4C-42AC-96F6-61590305A27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="150" windowWidth="16095" windowHeight="14970" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
+    <workbookView xWindow="4695" yWindow="0" windowWidth="13695" windowHeight="10335" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
   </bookViews>
   <sheets>
     <sheet name="画面イメージ" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -101,169 +101,6 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>69140</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{681A8E41-B2B6-479D-9DEC-385581A7FFA7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2981325" cy="5069765"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="11" name="グループ化 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA3CAF8A-C5B1-4047-ACED-115BB8588A27}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="3362325" y="104774"/>
-          <a:ext cx="3095625" cy="7715251"/>
-          <a:chOff x="514350" y="5924549"/>
-          <a:chExt cx="2620836" cy="7172327"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="7" name="図 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC86FF49-BF38-4E68-A5BC-3C006E3E951E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-          <a:srcRect l="12945" t="32691" r="17210" b="32380"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="514350" y="8439149"/>
-            <a:ext cx="2620836" cy="2228851"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="8" name="図 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44AE53CF-B06E-4B88-AA94-2DA40C50329F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-          <a:srcRect l="12692" t="44334" r="17502" b="17602"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="514350" y="10668000"/>
-            <a:ext cx="2619375" cy="2428876"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="9" name="図 8">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CCB90DC-86EE-46F2-AF71-814587BA222B}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-          <a:srcRect l="12438" t="32392" r="17757" b="27901"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="514350" y="5924549"/>
-            <a:ext cx="2619375" cy="2533651"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
@@ -287,7 +124,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:srcRect b="12384"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -307,14 +144,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>10457</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -330,13 +167,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:srcRect t="1" b="-88"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="9944100"/>
+          <a:off x="0" y="10096500"/>
           <a:ext cx="3010832" cy="5124450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -349,15 +186,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>428626</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>30667</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>554542</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -373,13 +210,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:srcRect t="-1" b="209"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429001" y="9906000"/>
+          <a:off x="3267076" y="10039350"/>
           <a:ext cx="3031041" cy="5143500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -387,6 +224,407 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>676033</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>84927</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEBA89F9-B84F-48BC-9AFF-AC2161604E9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2990608" cy="5085552"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="16" name="グループ化 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{919405E8-A626-400F-91D7-8C7C68C014F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3387587" y="1"/>
+          <a:ext cx="2492652" cy="9952796"/>
+          <a:chOff x="3381374" y="0"/>
+          <a:chExt cx="3105151" cy="10620375"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="図 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34847414-2E29-457E-8980-10E3E8A4EC25}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+          <a:srcRect l="12693" t="32542" r="16740" b="48655"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3390901" y="6912616"/>
+            <a:ext cx="3095624" cy="1402709"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="15" name="グループ化 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99B2930F-BB4D-4D82-B608-32F8DE7AA001}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3381374" y="0"/>
+            <a:ext cx="3105151" cy="10620375"/>
+            <a:chOff x="3381374" y="0"/>
+            <a:chExt cx="3105151" cy="10743011"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="図 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2DED505-9A7D-4571-9DC6-A4D24E8EEAD5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill rotWithShape="1">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:srcRect l="12438" t="32094" r="16234" b="23423"/>
+            <a:stretch/>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3381374" y="0"/>
+              <a:ext cx="3086101" cy="3272806"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="図 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B7C2153-45F9-4E58-BF9A-8D110C423317}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill rotWithShape="1">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:srcRect l="12438" t="32839" r="16488" b="16557"/>
+            <a:stretch/>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3381374" y="3257549"/>
+              <a:ext cx="3091832" cy="3743325"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="10" name="図 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD75223F-99BD-4A36-BE6C-37F99A4B0800}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill rotWithShape="1">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:srcRect l="12438" t="50902" r="16488" b="16706"/>
+            <a:stretch/>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3390899" y="8343899"/>
+              <a:ext cx="3095626" cy="2399112"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>173935</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>124240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>298174</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B745A08-953E-4384-A384-66A05EBF4B21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3180522" y="3006588"/>
+          <a:ext cx="2874065" cy="8282"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>132522</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>182218</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>256761</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{102F2273-C545-40D1-BA1C-15071CA326EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3139109" y="7147892"/>
+          <a:ext cx="2874065" cy="8282"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>107674</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>679174</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0199BA03-CBD1-40EE-B4C6-0561BA602B68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3114261" y="2965174"/>
+          <a:ext cx="1946413" cy="306456"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ドローン・周回毎のループ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -691,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF6B25E-050E-492A-AE76-AD4626B3C2A1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -703,7 +941,7 @@
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.35" right="0.12" top="0.77" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.15748031496062992"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;A</oddHeader>
   </headerFooter>

--- a/Doc/画面イメージ.xlsx
+++ b/Doc/画面イメージ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD87877-1F4C-42AC-96F6-61590305A27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A266B7EC-6F71-48DB-892D-302B13B83E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4695" yWindow="0" windowWidth="13695" windowHeight="10335" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
+    <workbookView xWindow="8265" yWindow="0" windowWidth="16095" windowHeight="14970" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
   </bookViews>
   <sheets>
     <sheet name="画面イメージ" sheetId="3" r:id="rId1"/>
@@ -140,25 +140,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>388648</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>233015</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>10457</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>106378</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="図 12">
+        <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0E6D383-CA39-4794-91B8-76622083CC81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34847414-2E29-457E-8980-10E3E8A4EC25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -168,100 +168,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect t="1" b="-88"/>
+        <a:srcRect l="12693" t="32542" r="16740" b="48655"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="10096500"/>
-          <a:ext cx="3010832" cy="5124450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>554542</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="図 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{056B76E7-9ED3-4AB2-A151-A90571D5E45D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:srcRect t="-1" b="209"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3267076" y="10039350"/>
-          <a:ext cx="3031041" cy="5143500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>676033</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>84927</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEBA89F9-B84F-48BC-9AFF-AC2161604E9A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2990608" cy="5085552"/>
+          <a:off x="3395235" y="6478102"/>
+          <a:ext cx="2485004" cy="1314537"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -274,8 +187,8 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>135589</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
@@ -285,10 +198,10 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="16" name="グループ化 15">
+        <xdr:cNvPr id="15" name="グループ化 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{919405E8-A626-400F-91D7-8C7C68C014F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99B2930F-BB4D-4D82-B608-32F8DE7AA001}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -296,18 +209,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3387587" y="1"/>
-          <a:ext cx="2492652" cy="9952796"/>
-          <a:chOff x="3381374" y="0"/>
-          <a:chExt cx="3105151" cy="10620375"/>
+          <a:off x="3387587" y="3017937"/>
+          <a:ext cx="2492652" cy="6934860"/>
+          <a:chOff x="3381374" y="3257549"/>
+          <a:chExt cx="3105151" cy="7485462"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="5" name="図 4">
+          <xdr:cNvPr id="4" name="図 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34847414-2E29-457E-8980-10E3E8A4EC25}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B7C2153-45F9-4E58-BF9A-8D110C423317}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -316,124 +229,48 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-          <a:srcRect l="12693" t="32542" r="16740" b="48655"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:srcRect l="12438" t="32839" r="16488" b="16557"/>
           <a:stretch/>
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3390901" y="6912616"/>
-            <a:ext cx="3095624" cy="1402709"/>
+            <a:off x="3381374" y="3257549"/>
+            <a:ext cx="3091832" cy="3743325"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
         </xdr:spPr>
       </xdr:pic>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="15" name="グループ化 14">
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="10" name="図 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99B2930F-BB4D-4D82-B608-32F8DE7AA001}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD75223F-99BD-4A36-BE6C-37F99A4B0800}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:srcRect l="12438" t="50902" r="16488" b="16706"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
           <a:xfrm>
-            <a:off x="3381374" y="0"/>
-            <a:ext cx="3105151" cy="10620375"/>
-            <a:chOff x="3381374" y="0"/>
-            <a:chExt cx="3105151" cy="10743011"/>
+            <a:off x="3390899" y="8343899"/>
+            <a:ext cx="3095626" cy="2399112"/>
           </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="3" name="図 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2DED505-9A7D-4571-9DC6-A4D24E8EEAD5}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill rotWithShape="1">
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-            <a:srcRect l="12438" t="32094" r="16234" b="23423"/>
-            <a:stretch/>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3381374" y="0"/>
-              <a:ext cx="3086101" cy="3272806"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="4" name="図 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B7C2153-45F9-4E58-BF9A-8D110C423317}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill rotWithShape="1">
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-            <a:srcRect l="12438" t="32839" r="16488" b="16557"/>
-            <a:stretch/>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3381374" y="3257549"/>
-              <a:ext cx="3091832" cy="3743325"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="10" name="図 9">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD75223F-99BD-4A36-BE6C-37F99A4B0800}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill rotWithShape="1">
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-            <a:srcRect l="12438" t="50902" r="16488" b="16706"/>
-            <a:stretch/>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3390899" y="8343899"/>
-              <a:ext cx="3095626" cy="2399112"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </xdr:grpSp>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -625,6 +462,181 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>679175</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>54529</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B424D5DB-6775-4A1D-8DC5-5CA6D3388640}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="2998304" cy="5098638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>74548</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>115957</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133686</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11B64552-6D47-4F13-8C60-0F26ECFF093C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect l="12361" t="32321" r="16785" b="18354"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3387588" y="74548"/>
+          <a:ext cx="2484782" cy="2941486"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>16564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68771</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>202124</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9288E32-0AF5-4835-AF53-C9626CC4A4ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10104781"/>
+          <a:ext cx="3075358" cy="5229669"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>207065</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>525759</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>173935</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AD5017C-DA65-44E5-8FC9-F3BA3EF4D9FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3213652" y="10088217"/>
+          <a:ext cx="3068520" cy="5218044"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -929,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF6B25E-050E-492A-AE76-AD4626B3C2A1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13:K13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Doc/画面イメージ.xlsx
+++ b/Doc/画面イメージ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A266B7EC-6F71-48DB-892D-302B13B83E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C39509A-EB5A-46DA-8FDF-D5C825284C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8265" yWindow="0" windowWidth="16095" windowHeight="14970" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
+    <workbookView xWindow="2730" yWindow="120" windowWidth="20340" windowHeight="14970" xr2:uid="{FE41EEF1-2D56-49AF-A65C-9B954D74FEE1}"/>
   </bookViews>
   <sheets>
     <sheet name="画面イメージ" sheetId="3" r:id="rId1"/>
@@ -101,21 +101,285 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>146142</xdr:rowOff>
+      <xdr:colOff>676331</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F53A4885-5AD8-4750-88CE-9881AE9062FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F287ABD-B8E5-48D3-8F6C-7165388878B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2995461" cy="4845326"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>231913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>20064</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>99392</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D6E062F-FF3D-4287-99B7-DBD9FD9DAF27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5035826"/>
+          <a:ext cx="3026651" cy="4911588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>16566</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>24935</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>198783</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88106B2D-CF95-4531-B446-829C518B2DEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10104783"/>
+          <a:ext cx="3031522" cy="4986130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>339587</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>621283</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F70E2D27-938D-4870-B378-242F9D20AAD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3346174" y="10096500"/>
+          <a:ext cx="3031522" cy="4986130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>372717</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>91347</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>198782</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA16458B-063E-4CCD-A3A7-65711EA40922}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3379304" y="0"/>
+          <a:ext cx="2468456" cy="3081130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>356152</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>157657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99392</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>91982</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F3D4756-A770-423A-8540-F05117CAC712}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3362739" y="3040005"/>
+          <a:ext cx="2493066" cy="3056868"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>372718</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>74543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>81085</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57978</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBBD4800-25AB-48D0-952D-9B6C00B47B6F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -124,14 +388,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect b="12384"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect b="29525"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5229225"/>
-          <a:ext cx="2981325" cy="4441917"/>
+          <a:off x="3379305" y="6079434"/>
+          <a:ext cx="2458193" cy="2145196"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -143,204 +407,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>388648</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>233015</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>106378</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34847414-2E29-457E-8980-10E3E8A4EC25}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect l="12693" t="32542" r="16740" b="48655"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3395235" y="6478102"/>
-          <a:ext cx="2485004" cy="1314537"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>135589</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="15" name="グループ化 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99B2930F-BB4D-4D82-B608-32F8DE7AA001}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="3387587" y="3017937"/>
-          <a:ext cx="2492652" cy="6934860"/>
-          <a:chOff x="3381374" y="3257549"/>
-          <a:chExt cx="3105151" cy="7485462"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="4" name="図 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B7C2153-45F9-4E58-BF9A-8D110C423317}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-          <a:srcRect l="12438" t="32839" r="16488" b="16557"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3381374" y="3257549"/>
-            <a:ext cx="3091832" cy="3743325"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="10" name="図 9">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD75223F-99BD-4A36-BE6C-37F99A4B0800}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-          <a:srcRect l="12438" t="50902" r="16488" b="16706"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3390899" y="8343899"/>
-            <a:ext cx="3095626" cy="2399112"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>173935</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>124240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>298174</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>132522</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直線コネクタ 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B745A08-953E-4384-A384-66A05EBF4B21}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3180522" y="3006588"/>
-          <a:ext cx="2874065" cy="8282"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
       <xdr:colOff>132522</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>182218</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>215353</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>256761</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>223635</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -355,7 +430,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3139109" y="7147892"/>
+          <a:off x="3139109" y="5499657"/>
           <a:ext cx="2874065" cy="8282"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -388,14 +463,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>107674</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>82826</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>679174</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>149087</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>124236</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -410,7 +485,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3114261" y="2965174"/>
+          <a:off x="3114261" y="2700128"/>
           <a:ext cx="1946413" cy="306456"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -464,179 +539,59 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>173935</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>99390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>679175</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>54529</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>298174</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>107672</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B424D5DB-6775-4A1D-8DC5-5CA6D3388640}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B745A08-953E-4384-A384-66A05EBF4B21}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="0"/>
-          <a:ext cx="2998304" cy="5098638"/>
+          <a:off x="3180522" y="2741542"/>
+          <a:ext cx="2874065" cy="8282"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>74548</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>115957</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>133686</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11B64552-6D47-4F13-8C60-0F26ECFF093C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:srcRect l="12361" t="32321" r="16785" b="18354"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3387588" y="74548"/>
-          <a:ext cx="2484782" cy="2941486"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>16564</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>68771</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>202124</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9288E32-0AF5-4835-AF53-C9626CC4A4ED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="10104781"/>
-          <a:ext cx="3075358" cy="5229669"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>207065</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>525759</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>173935</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AD5017C-DA65-44E5-8FC9-F3BA3EF4D9FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3213652" y="10088217"/>
-          <a:ext cx="3068520" cy="5218044"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -942,7 +897,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
